--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>213584.8198669559</v>
+        <v>214714.0145809004</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18918821.64322884</v>
+        <v>19087887.3835584</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9446554.900257193</v>
+        <v>9612256.23235416</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5514828.016514679</v>
+        <v>5434969.56007025</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>256.1455588538931</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>372.8375563888687</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -902,10 +904,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>131.975558987749</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>139.4851730221162</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>273.2585504104011</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>19.67556045611487</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>127.2960718860379</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.1476088529642</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.3192265349075</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>164.540418312084</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.3192265349075</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>124.0950237970983</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>164.540418312084</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>78.25500887423479</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>131.975558987749</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>28.05926044967012</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2059,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>227.660645293161</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>399.3804097496243</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>166.6341497262147</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>187.9933292192603</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>79.38619462154684</v>
       </c>
       <c r="G23" t="n">
-        <v>38.27822959948085</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2384,7 +2386,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2485,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532361</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>164.7047943182444</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>216.550902874255</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>187.7303633741246</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>106.0910900114345</v>
       </c>
     </row>
     <row r="29">
@@ -2849,16 +2851,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>57.35299777961163</v>
+        <v>104.7223743992564</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2968,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>54.76663795506147</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -3092,10 +3094,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>208.0459955848474</v>
       </c>
       <c r="Y32" t="n">
-        <v>104.7223743992572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3190,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3266,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>104.7223743992572</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -3326,7 +3328,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>53.09658924790487</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3427,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.370338608491449</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3506,13 +3508,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>264.5256984474114</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>124.429452383991</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>114.7046543016366</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>104.7223743992572</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>238.5792768260961</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>65.16360326142079</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>182.1908071715378</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.91199246082674</v>
+        <v>1020.413988704697</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082674</v>
+        <v>593.5132587179971</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082674</v>
+        <v>593.5132587179971</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>358.3859952497895</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M2" t="n">
-        <v>358.3859952497895</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N2" t="n">
-        <v>358.3859952497895</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4361,19 +4363,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1229.755298763999</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>833.3639490643454</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>833.3639490643454</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y2" t="n">
-        <v>456.7603567523568</v>
+        <v>1440.262352996227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4516,22 +4518,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W4" t="n">
-        <v>1679.397180301858</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X4" t="n">
-        <v>1436.833283747663</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y4" t="n">
-        <v>1210.490515437405</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>887.1053432625264</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C5" t="n">
-        <v>460.2046132758265</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>475.942330131692</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>475.942330131692</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M5" t="n">
-        <v>475.942330131692</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N5" t="n">
-        <v>932.7282368344229</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.514143537154</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q5" t="n">
         <v>1845.599623041337</v>
@@ -4607,10 +4609,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1306.953707554057</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4628,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>475.2419029331439</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M6" t="n">
-        <v>932.0278096358747</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O6" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q6" t="n">
         <v>1845.599623041337</v>
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.7786697456644</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C7" t="n">
-        <v>177.8061066245805</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D7" t="n">
-        <v>177.8061066245805</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E7" t="n">
-        <v>177.8061066245805</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L7" t="n">
-        <v>391.6013137552475</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M7" t="n">
-        <v>782.7871087254983</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N7" t="n">
-        <v>1160.278619601534</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O7" t="n">
-        <v>1515.706748281297</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4756,19 +4758,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U7" t="n">
-        <v>1565.415174541641</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V7" t="n">
-        <v>1283.70370714967</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W7" t="n">
-        <v>1008.851303322183</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X7" t="n">
-        <v>766.287406767988</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.9446384577301</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1440.262352996227</v>
+        <v>909.6639657906942</v>
       </c>
       <c r="C8" t="n">
-        <v>1440.262352996227</v>
+        <v>482.7632358039943</v>
       </c>
       <c r="D8" t="n">
-        <v>1164.243615207943</v>
+        <v>482.7632358039943</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.243615207943</v>
+        <v>56.78629595185186</v>
       </c>
       <c r="F8" t="n">
-        <v>739.1194333973433</v>
+        <v>56.78629595185186</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K8" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="L8" t="n">
-        <v>932.027809635875</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M8" t="n">
-        <v>932.027809635875</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X8" t="n">
-        <v>1845.599623041337</v>
+        <v>1329.512330082224</v>
       </c>
       <c r="Y8" t="n">
-        <v>1440.262352996227</v>
+        <v>1329.512330082224</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L9" t="n">
-        <v>475.2419029331439</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358747</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="N9" t="n">
+        <v>475.2419029331443</v>
+      </c>
+      <c r="O9" t="n">
+        <v>932.0278096358751</v>
+      </c>
+      <c r="P9" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1845.599623041337</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="Q9" t="n">
         <v>1845.599623041337</v>
@@ -4936,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>203.1689621665946</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C10" t="n">
-        <v>203.1689621665946</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D10" t="n">
-        <v>203.1689621665946</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E10" t="n">
-        <v>203.1689621665946</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F10" t="n">
-        <v>203.1689621665946</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L10" t="n">
-        <v>391.6013137552475</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M10" t="n">
-        <v>782.7871087254983</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N10" t="n">
-        <v>1160.278619601534</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O10" t="n">
-        <v>1515.706748281297</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P10" t="n">
-        <v>1806.305960203198</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.940779286676</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V10" t="n">
-        <v>870.229311894705</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="W10" t="n">
-        <v>595.376908067218</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="X10" t="n">
-        <v>352.8130115130231</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.1689621665946</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="11">
@@ -5027,40 +5029,40 @@
         <v>462.0361742714265</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>475.2419029331441</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>932.027809635875</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M11" t="n">
-        <v>1388.813716338606</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N11" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O11" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5069,22 +5071,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J12" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L12" t="n">
-        <v>393.2225928484407</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M12" t="n">
-        <v>850.0084995511716</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N12" t="n">
-        <v>1306.794406253902</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O12" t="n">
-        <v>1306.794406253902</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P12" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q12" t="n">
         <v>1763.580312956633</v>
@@ -5191,31 +5193,31 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1738.206464925269</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="C14" t="n">
-        <v>1311.305734938569</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D14" t="n">
         <v>888.013114123569</v>
@@ -5264,40 +5266,40 @@
         <v>462.0361742714265</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
-        <v>475.942330131692</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M14" t="n">
-        <v>932.7282368344229</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N14" t="n">
-        <v>932.7282368344229</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O14" t="n">
-        <v>1389.514143537154</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P14" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5306,22 +5308,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1720.251114155379</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1720.251114155379</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1720.251114155379</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1720.251114155379</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>1720.251114155379</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041337</v>
+        <v>1314.913844110269</v>
       </c>
     </row>
     <row r="15">
@@ -5337,40 +5339,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M15" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N15" t="n">
-        <v>950.4838058662885</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O15" t="n">
-        <v>1407.269712569019</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P15" t="n">
         <v>1845.599623041337</v>
@@ -5428,13 +5430,13 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
         <v>76.20565529896515</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>887.1053432625264</v>
+        <v>976.4213583974179</v>
       </c>
       <c r="C17" t="n">
-        <v>460.2046132758265</v>
+        <v>549.520628410718</v>
       </c>
       <c r="D17" t="n">
-        <v>36.91199246082674</v>
+        <v>549.520628410718</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082674</v>
+        <v>123.5436885585756</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>123.5436885585756</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>856.3013579804531</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L17" t="n">
-        <v>856.3013579804531</v>
+        <v>455.358312627159</v>
       </c>
       <c r="M17" t="n">
-        <v>856.3013579804531</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N17" t="n">
-        <v>1313.087264683184</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O17" t="n">
-        <v>1769.873171385915</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P17" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X17" t="n">
-        <v>1712.290977599166</v>
+        <v>976.4213583974179</v>
       </c>
       <c r="Y17" t="n">
-        <v>1306.953707554057</v>
+        <v>976.4213583974179</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C18" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H18" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>475.2419029331441</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L18" t="n">
-        <v>475.2419029331441</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M18" t="n">
-        <v>932.027809635875</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N18" t="n">
-        <v>1388.813716338606</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O18" t="n">
-        <v>1388.813716338606</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S18" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U18" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V18" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>575.3459868360173</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C19" t="n">
-        <v>403.3734237149333</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D19" t="n">
-        <v>403.3734237149333</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E19" t="n">
-        <v>375.0307363920342</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F19" t="n">
-        <v>203.1689621665946</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K19" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L19" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M19" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.769947825692</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O19" t="n">
-        <v>1573.198076505455</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q19" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.260275267237</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.075826767541</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V19" t="n">
-        <v>1040.36435937557</v>
+        <v>1254.253547624018</v>
       </c>
       <c r="W19" t="n">
-        <v>765.5119555480831</v>
+        <v>1254.253547624018</v>
       </c>
       <c r="X19" t="n">
-        <v>765.5119555480831</v>
+        <v>1254.253547624018</v>
       </c>
       <c r="Y19" t="n">
-        <v>765.5119555480831</v>
+        <v>1027.91077931376</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1333.910773271169</v>
+        <v>897.3758948880899</v>
       </c>
       <c r="C20" t="n">
-        <v>1333.910773271169</v>
+        <v>470.47516490139</v>
       </c>
       <c r="D20" t="n">
-        <v>1333.910773271169</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E20" t="n">
-        <v>907.9338334190269</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F20" t="n">
-        <v>482.8096516084271</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>455.3583126271592</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L20" t="n">
         <v>1006.023847611597</v>
       </c>
       <c r="M20" t="n">
-        <v>1556.689382596036</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N20" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>1745.630772103422</v>
+        <v>2056.593929506603</v>
       </c>
       <c r="V20" t="n">
-        <v>1745.630772103422</v>
+        <v>1699.104514632853</v>
       </c>
       <c r="W20" t="n">
-        <v>1745.630772103422</v>
+        <v>1302.7131649332</v>
       </c>
       <c r="X20" t="n">
-        <v>1333.910773271169</v>
+        <v>1302.7131649332</v>
       </c>
       <c r="Y20" t="n">
-        <v>1333.910773271169</v>
+        <v>897.3758948880899</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>416.2236218818665</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K21" t="n">
-        <v>416.2236218818665</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="L21" t="n">
-        <v>416.2236218818665</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="M21" t="n">
-        <v>416.2236218818665</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N21" t="n">
-        <v>966.8891568663047</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O21" t="n">
-        <v>1517.554691850743</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P21" t="n">
-        <v>2068.220226835181</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q21" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R21" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>955.7067844524004</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C22" t="n">
         <v>955.7067844524004</v>
@@ -5905,7 +5907,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5932,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.72680396268</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V22" t="n">
-        <v>1663.015336570709</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W22" t="n">
-        <v>1388.162932743222</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X22" t="n">
-        <v>1145.599036189027</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y22" t="n">
-        <v>1145.599036189027</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1821.36956835783</v>
+        <v>1416.79990393047</v>
       </c>
       <c r="C23" t="n">
-        <v>1394.46883837113</v>
+        <v>989.8991739437699</v>
       </c>
       <c r="D23" t="n">
-        <v>971.1762175561305</v>
+        <v>989.8991739437699</v>
       </c>
       <c r="E23" t="n">
-        <v>545.1992777039881</v>
+        <v>563.9222340916275</v>
       </c>
       <c r="F23" t="n">
-        <v>120.0750958933883</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G23" t="n">
-        <v>81.41021751007428</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H23" t="n">
-        <v>81.41021751007428</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>796.9185254855734</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L23" t="n">
-        <v>1726.54357310485</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M23" t="n">
-        <v>2730.829674523909</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N23" t="n">
-        <v>3707.080733010609</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>3812.155966100126</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V23" t="n">
-        <v>3454.666551226375</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W23" t="n">
-        <v>3058.275201526722</v>
+        <v>1828.519902762722</v>
       </c>
       <c r="X23" t="n">
-        <v>2646.55520269447</v>
+        <v>1416.79990393047</v>
       </c>
       <c r="Y23" t="n">
-        <v>2241.21793264936</v>
+        <v>1416.79990393047</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.5337085415294</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>531.0278050590342</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>427.1878465743193</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E24" t="n">
-        <v>322.4859128472565</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F24" t="n">
-        <v>228.8400825301607</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7863107477647</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>81.41021751007428</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L24" t="n">
-        <v>81.41021751007428</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M24" t="n">
-        <v>882.6464064034149</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N24" t="n">
-        <v>1890.097848090584</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="O24" t="n">
-        <v>1890.097848090584</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1808.773600651838</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1666.893664949517</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1482.125468869153</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1277.15233000842</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1080.630952841637</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>917.1536066082998</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>777.4607179615922</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2973.278970614822</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C25" t="n">
-        <v>2801.306407493738</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D25" t="n">
-        <v>2637.989634620509</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.781428773363</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F25" t="n">
-        <v>2299.919654547923</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G25" t="n">
-        <v>2133.662684842155</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H25" t="n">
-        <v>1989.866416350309</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I25" t="n">
-        <v>1890.097848090585</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>1947.589176314743</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>2174.11677752058</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>2528.806098815001</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>2919.991893785252</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>3297.483404661288</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>3652.911533341051</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>3943.510745262952</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>4023.472262190887</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>3853.337214710022</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>3609.997866935922</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U25" t="n">
-        <v>3329.813418436226</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V25" t="n">
-        <v>3163.444939326888</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W25" t="n">
-        <v>3163.444939326888</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X25" t="n">
-        <v>3163.444939326888</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y25" t="n">
-        <v>3163.444939326888</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>44.49822504924753</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="C26" t="n">
-        <v>44.49822504924753</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="D26" t="n">
-        <v>44.49822504924753</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="E26" t="n">
-        <v>44.49822504924753</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K26" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L26" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M26" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N26" t="n">
-        <v>1696.494830002562</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2035.284622791544</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>2035.284622791544</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V26" t="n">
-        <v>1677.795207917793</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W26" t="n">
-        <v>1281.40385821814</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X26" t="n">
-        <v>869.6838593858872</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y26" t="n">
-        <v>464.3465893407776</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="27">
@@ -6285,40 +6287,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L27" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M27" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N27" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="O27" t="n">
-        <v>1696.494830002562</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P27" t="n">
         <v>1853.185855629757</v>
@@ -6379,7 +6381,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6403,28 +6405,28 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462377</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U28" t="n">
-        <v>2224.911252462377</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V28" t="n">
-        <v>2061.60438497749</v>
+        <v>1699.860437296304</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.751981150003</v>
+        <v>1425.008033468817</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>1425.008033468817</v>
       </c>
       <c r="Y28" t="n">
         <v>1317.84531628555</v>
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="C29" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="D29" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="E29" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="F29" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G29" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>79.39509630577632</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336857</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M29" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N29" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="O29" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T29" t="n">
-        <v>1899.61838738015</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U29" t="n">
-        <v>1641.263477976562</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V29" t="n">
-        <v>1641.263477976562</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W29" t="n">
-        <v>1244.872128276909</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X29" t="n">
-        <v>1186.939807287403</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="Y29" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
     </row>
     <row r="30">
@@ -6522,46 +6524,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L30" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M30" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N30" t="n">
-        <v>1220.501010560616</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O30" t="n">
-        <v>1220.501010560616</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P30" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q30" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C31" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D31" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E31" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F31" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G31" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6646,25 +6648,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T31" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U31" t="n">
-        <v>1774.591756481815</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V31" t="n">
-        <v>1774.591756481815</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.739352654328</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X31" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y31" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="C32" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="D32" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="E32" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="F32" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G32" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>79.39509630577632</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="N32" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U32" t="n">
-        <v>1641.263477976562</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V32" t="n">
-        <v>1283.774063102812</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W32" t="n">
-        <v>887.3827134031587</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="X32" t="n">
-        <v>887.3827134031587</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="Y32" t="n">
-        <v>781.6025372422929</v>
+        <v>781.6025372422928</v>
       </c>
     </row>
     <row r="33">
@@ -6759,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K33" t="n">
-        <v>201.1892506764427</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L33" t="n">
-        <v>751.8547856608809</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="M33" t="n">
-        <v>751.8547856608809</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="N33" t="n">
-        <v>751.8547856608809</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="O33" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P33" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C34" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6880,28 +6882,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U34" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W34" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y34" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>887.3827134031587</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="C35" t="n">
-        <v>887.3827134031587</v>
+        <v>803.240414683884</v>
       </c>
       <c r="D35" t="n">
-        <v>887.3827134031587</v>
+        <v>803.240414683884</v>
       </c>
       <c r="E35" t="n">
-        <v>887.3827134031587</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F35" t="n">
-        <v>781.6025372422929</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G35" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>79.39509630577632</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>572.914647509062</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L35" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M35" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N35" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T35" t="n">
-        <v>1899.61838738015</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U35" t="n">
-        <v>1641.263477976562</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V35" t="n">
-        <v>1283.774063102812</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W35" t="n">
-        <v>887.3827134031587</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="X35" t="n">
-        <v>887.3827134031587</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="Y35" t="n">
-        <v>887.3827134031587</v>
+        <v>1230.141144670584</v>
       </c>
     </row>
     <row r="36">
@@ -6996,46 +6998,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924753</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N36" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O36" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>268.5772905989112</v>
+        <v>558.9552516858382</v>
       </c>
       <c r="C37" t="n">
-        <v>96.60472747782725</v>
+        <v>386.9826885647542</v>
       </c>
       <c r="D37" t="n">
-        <v>44.49822504924753</v>
+        <v>386.9826885647542</v>
       </c>
       <c r="E37" t="n">
-        <v>44.49822504924753</v>
+        <v>220.7744827176078</v>
       </c>
       <c r="F37" t="n">
-        <v>44.49822504924753</v>
+        <v>48.91270849216818</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7117,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894584</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394888</v>
+        <v>1774.591756481815</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002917</v>
+        <v>1492.880289089844</v>
       </c>
       <c r="W37" t="n">
-        <v>927.6499241754298</v>
+        <v>1218.027885262357</v>
       </c>
       <c r="X37" t="n">
-        <v>685.0860276212348</v>
+        <v>975.4639887081618</v>
       </c>
       <c r="Y37" t="n">
-        <v>458.7432593109769</v>
+        <v>749.1212203979038</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>471.3989550359474</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C38" t="n">
-        <v>44.49822504924753</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D38" t="n">
-        <v>44.49822504924753</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L38" t="n">
-        <v>549.9383681074144</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M38" t="n">
-        <v>549.9383681074144</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N38" t="n">
-        <v>549.9383681074144</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U38" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V38" t="n">
-        <v>1699.358667859383</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W38" t="n">
-        <v>1302.96731815973</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="X38" t="n">
-        <v>891.2473193274775</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y38" t="n">
-        <v>891.2473193274775</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="39">
@@ -7233,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L39" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N39" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O39" t="n">
-        <v>756.3555336978366</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P39" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7327,7 +7329,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7363,13 +7365,13 @@
         <v>2224.911252462376</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.72680396268</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V40" t="n">
-        <v>1944.72680396268</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.874400135193</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X40" t="n">
         <v>1544.188084595808</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.6025372422929</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="C41" t="n">
-        <v>781.6025372422929</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="D41" t="n">
-        <v>781.6025372422929</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E41" t="n">
-        <v>781.6025372422929</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F41" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G41" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>595.1637600336857</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L41" t="n">
-        <v>1145.829295018124</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M41" t="n">
-        <v>1696.494830002562</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N41" t="n">
-        <v>2224.911252462377</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>1899.61838738015</v>
+        <v>2109.047965289005</v>
       </c>
       <c r="U41" t="n">
-        <v>1641.263477976562</v>
+        <v>2109.047965289005</v>
       </c>
       <c r="V41" t="n">
-        <v>1283.774063102812</v>
+        <v>2109.047965289005</v>
       </c>
       <c r="W41" t="n">
-        <v>887.3827134031587</v>
+        <v>1712.656615589352</v>
       </c>
       <c r="X41" t="n">
-        <v>781.6025372422929</v>
+        <v>1300.936616757099</v>
       </c>
       <c r="Y41" t="n">
-        <v>781.6025372422929</v>
+        <v>895.5993467119897</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J42" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L42" t="n">
-        <v>1417.526784297715</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M42" t="n">
-        <v>1417.526784297715</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N42" t="n">
-        <v>1417.526784297715</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>488.1011306554951</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H43" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K43" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L43" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M43" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N43" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P43" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.911252462377</v>
+        <v>1983.922083951167</v>
       </c>
       <c r="U43" t="n">
-        <v>2224.911252462377</v>
+        <v>1703.737635451472</v>
       </c>
       <c r="V43" t="n">
-        <v>2061.60438497749</v>
+        <v>1422.026168059501</v>
       </c>
       <c r="W43" t="n">
-        <v>1786.751981150003</v>
+        <v>1147.173764232014</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.188084595808</v>
+        <v>904.6098676778188</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>678.2670993675608</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.91199246082674</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C44" t="n">
-        <v>36.91199246082674</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D44" t="n">
-        <v>36.91199246082674</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>36.91199246082674</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L44" t="n">
-        <v>475.2419029331441</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M44" t="n">
-        <v>932.027809635875</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N44" t="n">
-        <v>1388.813716338606</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U44" t="n">
-        <v>1261.951848555523</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V44" t="n">
-        <v>904.4624336817722</v>
+        <v>1504.699634058178</v>
       </c>
       <c r="W44" t="n">
-        <v>508.071083982119</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="X44" t="n">
-        <v>508.071083982119</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="Y44" t="n">
-        <v>102.7338139370094</v>
+        <v>1320.668515703089</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6094817404178</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>308.6094817404178</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="L45" t="n">
-        <v>308.6094817404178</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="M45" t="n">
-        <v>475.2419029331441</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="N45" t="n">
-        <v>932.027809635875</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.813716338606</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="P45" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>388.332562395771</v>
       </c>
       <c r="C46" t="n">
-        <v>948.1205518639796</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>784.8037789907503</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>618.5955731436038</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>446.7337989181643</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="G46" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>1779.165748561582</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>363.0332573709691</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7991,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>114.5898268852864</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>465.2725720398027</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>375.5597255057598</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>42.23240770727544</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>112.9634683240717</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>113.8823246645311</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>465.2725720398024</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>183.5407536736399</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8374,7 +8376,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8389,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>227.322966839075</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,7 +8458,7 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>481.069527758196</v>
+        <v>362.3257551502136</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8465,16 +8467,16 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8535,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>465.2725720398024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>456.5786519614262</v>
       </c>
       <c r="O9" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8626,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.31013128815742</v>
+        <v>129.0289299912519</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>478.5220861203824</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160601</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>100.4610141345437</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425368</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
         <v>484.1469440493127</v>
@@ -8845,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>42.23240770727544</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8866,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>481.7770299789515</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918454</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>464.5283265304016</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9085,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P17" t="n">
-        <v>114.0667271187383</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>190.7148107956832</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>267.010789576021</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9337,7 +9339,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>169.2509181278045</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>450.7747902674474</v>
+        <v>84.50867025038097</v>
       </c>
       <c r="L20" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O20" t="n">
         <v>37.3909593560241</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>379.611113881151</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>181.0208015487718</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,19 +9640,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>571.0335849150664</v>
       </c>
       <c r="O23" t="n">
-        <v>404.4921133894626</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
@@ -9717,22 +9719,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740234</v>
       </c>
       <c r="M24" t="n">
-        <v>832.4262642429751</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1038.97074708947</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,19 +9877,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>452.2898123070838</v>
       </c>
       <c r="O26" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721218</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P27" t="n">
-        <v>180.0446044646217</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10039,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281025</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P29" t="n">
-        <v>571.3293238908518</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10188,31 +10190,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>378.5549082613589</v>
+        <v>267.010789576021</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O32" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
@@ -10370,7 +10372,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378163</v>
+        <v>178.4700015426662</v>
       </c>
       <c r="P33" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498007</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870441</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>179.6167914733348</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>546.3101998434627</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
@@ -10835,10 +10837,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10902,28 +10904,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O39" t="n">
-        <v>185.9918631203545</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L41" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>571.0335849150666</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955935</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11151,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>463.2315577343861</v>
+        <v>460.2559062950367</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L44" t="n">
-        <v>481.069527758196</v>
+        <v>205.799884496177</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N44" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O44" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061477</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>191.4123574746778</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11470,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>165.5716115997279</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -22562,7 +22564,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22601,19 +22603,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.44634095578982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22707,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22756,16 +22758,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>309.3306541137075</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,10 +22792,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22847,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>275.6272398561812</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22945,19 +22947,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>30.65798346106899</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22996,13 +22998,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>145.8011441964486</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>380.620111330331</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -23084,10 +23086,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23176,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23227,25 +23229,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>112.842185702615</v>
       </c>
       <c r="Y10" t="n">
-        <v>75.93173177419121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309.3306541137072</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>112.3970887109059</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23476,7 +23478,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>107.5634614771281</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309.3306541137072</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>94.62129144871484</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -23561,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23715,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>107.5634614771281</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>322.040662912211</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -23783,22 +23785,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>275.6272398561812</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>136.4868633390049</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>51.23370742489035</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9152620368215594</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>89.13721058333715</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2709798056847035</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -24181,10 +24183,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>341.4867453709469</v>
       </c>
       <c r="G23" t="n">
-        <v>362.017442186965</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,10 +24262,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>59.64236734312294</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1895583998069</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24455,10 +24457,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>183.7447689121908</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24494,16 +24496,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>30.9859518716886</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>117.9882506157208</v>
       </c>
     </row>
     <row r="29">
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>350.2498010643185</v>
+        <v>302.8804244446738</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>185.3716196335915</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>199.5568032590828</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.5615229454014</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25154,19 +25156,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>316.1505655932366</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25214,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>339.3308469547517</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>160.2240614002187</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25394,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -25445,16 +25447,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>89.38882227760161</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>333.7499474520721</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25603,16 +25605,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>115.7088052046619</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>104.0116609441766</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>302.8804244446731</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>2.326677470262922</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>350.4862773871939</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>210.2366290311188</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>436809.3783695773</v>
+        <v>436809.3783695774</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>436809.3783695774</v>
+        <v>436809.3783695773</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>436809.3783695774</v>
+        <v>436809.3783695773</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436809.3783695773</v>
+        <v>436809.3783695772</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436809.3783695773</v>
+        <v>492207.6773402161</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699312.9123916855</v>
+        <v>492207.6773402161</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492207.6773402162</v>
+        <v>492207.6773402161</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>492207.6773402162</v>
+        <v>492207.6773402161</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>492207.6773402162</v>
+        <v>492207.6773402161</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>492207.6773402162</v>
+        <v>492207.6773402161</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436809.3783695774</v>
+        <v>492207.6773402162</v>
       </c>
     </row>
   </sheetData>
@@ -26326,19 +26328,19 @@
         <v>135314.4327365512</v>
       </c>
       <c r="G2" t="n">
-        <v>135314.4327365512</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="H2" t="n">
+        <v>152470.9723568844</v>
+      </c>
+      <c r="I2" t="n">
         <v>152470.9723568845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>216610.2913750044</v>
       </c>
       <c r="J2" t="n">
         <v>152470.9723568844</v>
       </c>
       <c r="K2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="L2" t="n">
         <v>152470.9723568845</v>
@@ -26350,10 +26352,10 @@
         <v>152470.9723568845</v>
       </c>
       <c r="O2" t="n">
-        <v>152470.9723568846</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="P2" t="n">
-        <v>135314.4327365512</v>
+        <v>152470.9723568845</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25990.90698746637</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>22820.43073295062</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>46301.12075802253</v>
+      </c>
+      <c r="C4" t="n">
         <v>46301.12075802254</v>
       </c>
-      <c r="C4" t="n">
-        <v>46301.12075802253</v>
-      </c>
       <c r="D4" t="n">
-        <v>46301.12075802253</v>
+        <v>46301.12075802254</v>
       </c>
       <c r="E4" t="n">
         <v>46301.12075802253</v>
       </c>
       <c r="F4" t="n">
-        <v>46301.12075802254</v>
+        <v>46301.12075802255</v>
       </c>
       <c r="G4" t="n">
-        <v>46301.12075802253</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="H4" t="n">
         <v>52194.43267059494</v>
       </c>
       <c r="I4" t="n">
-        <v>74226.44035970868</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="J4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059493</v>
       </c>
       <c r="K4" t="n">
         <v>52194.43267059494</v>
       </c>
       <c r="L4" t="n">
-        <v>52194.43267059495</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="M4" t="n">
-        <v>52194.43267059495</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="N4" t="n">
-        <v>52194.43267059495</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="O4" t="n">
-        <v>52194.43267059495</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="P4" t="n">
-        <v>46301.12075802255</v>
+        <v>52194.43267059494</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>61871.76530765645</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127293.1229098202</v>
+        <v>-127293.1229098201</v>
       </c>
       <c r="C6" t="n">
-        <v>27332.59770830031</v>
+        <v>27332.59770830034</v>
       </c>
       <c r="D6" t="n">
         <v>27332.59770830034</v>
       </c>
       <c r="E6" t="n">
-        <v>60960.19770830031</v>
+        <v>60960.19770830034</v>
       </c>
       <c r="F6" t="n">
-        <v>60960.19770830031</v>
+        <v>60960.1977083003</v>
       </c>
       <c r="G6" t="n">
-        <v>60960.19770830031</v>
+        <v>40466.98166139513</v>
       </c>
       <c r="H6" t="n">
-        <v>40872.46579324611</v>
+        <v>66457.88864886138</v>
       </c>
       <c r="I6" t="n">
-        <v>-42183.83863205454</v>
+        <v>66457.88864886144</v>
       </c>
       <c r="J6" t="n">
-        <v>66457.88864886138</v>
+        <v>-54264.62829389548</v>
       </c>
       <c r="K6" t="n">
+        <v>66457.88864886155</v>
+      </c>
+      <c r="L6" t="n">
+        <v>66457.8886488615</v>
+      </c>
+      <c r="M6" t="n">
+        <v>66457.88864886144</v>
+      </c>
+      <c r="N6" t="n">
         <v>66457.88864886147</v>
       </c>
-      <c r="L6" t="n">
-        <v>66457.88864886147</v>
-      </c>
-      <c r="M6" t="n">
-        <v>66457.88864886147</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>43637.45791591083</v>
+      </c>
+      <c r="P6" t="n">
         <v>66457.88864886144</v>
-      </c>
-      <c r="O6" t="n">
-        <v>66457.8886488615</v>
-      </c>
-      <c r="P6" t="n">
-        <v>60960.19770830029</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
-        <v>1017.627718875928</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603343</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L2" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>77.19886752926232</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>442.7574853255732</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>352.3878357835376</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781578962</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>77.19886752926237</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35109,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9421661810885</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L8" t="n">
-        <v>442.7574853255731</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35346,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.69056852337247</v>
+        <v>104.409367226467</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L12" t="n">
-        <v>77.94592742031416</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781578962</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35586,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P15" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P17" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>168.3155769623498</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36057,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>146.870117469818</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
         <v>128.2829598391535</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>415.010189472638</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.2737632597933</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="O23" t="n">
-        <v>367.1011540334385</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="M24" t="n">
-        <v>809.3294837306471</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1017.627718875928</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="O26" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P27" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,7 +36761,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366167</v>
       </c>
       <c r="N28" t="n">
         <v>381.3045564404402</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P29" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>357.2118800478172</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O32" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155941</v>
+        <v>155.2981118204439</v>
       </c>
       <c r="P33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="P38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O39" t="n">
-        <v>162.8199733981322</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P39" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>440.0596680121639</v>
+        <v>437.0840165728145</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L44" t="n">
-        <v>442.7574853255731</v>
+        <v>167.4878420635541</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>437.0840165728144</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
@@ -38190,10 +38192,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>214714.0145809004</v>
+        <v>209101.0256693272</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19087887.3835584</v>
+        <v>19087887.38355837</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5434969.56007025</v>
+        <v>5434969.560070251</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>256.1455588538931</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>62.44488446546455</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>68.83205621562998</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>228.7236104825973</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.3192265349073</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -910,7 +910,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6.405419307551537</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>164.5404183120838</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>79.21609600298689</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>19.67556045611487</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>160.0273675464083</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>7.907838990075963</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>127.2960718860379</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1381,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.56649003536975</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>106.3192265349073</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>164.5404183120838</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>65.00183902725126</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>124.0950237970983</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.399639791493771</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>164.5404183120838</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>371.0037482136093</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>78.25500887423479</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>25.45817320599582</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>227.660645293161</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>11.39333272290765</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>166.6341497262147</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>183.8353255806773</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>79.38619462154684</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>181.2635869532361</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>216.550902874255</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>82.38632349887008</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>17.50393454862547</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.0910900114345</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>139.2702769432207</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -2812,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>104.7223743992564</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>112.6380185390275</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -3049,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -3091,10 +3091,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>208.0459955848474</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686383</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>129.4018751502024</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3328,10 +3328,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>53.09658924790487</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>68.52178685653514</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>4.370338608491449</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3508,13 +3508,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>388.601476337581</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>114.7046543016366</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>129.5632622588936</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
-        <v>238.5792768260961</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4039,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>182.1908071715378</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>139.2702769432207</v>
       </c>
     </row>
     <row r="45">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>167.8164790129221</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.413988704697</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="C2" t="n">
-        <v>593.5132587179971</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="D2" t="n">
-        <v>593.5132587179971</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="E2" t="n">
-        <v>334.7803709867919</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="F2" t="n">
-        <v>334.7803709867919</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>99.98763333503337</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="L2" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="M2" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="N2" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="O2" t="n">
         <v>856.3013579804531</v>
       </c>
-      <c r="L2" t="n">
-        <v>856.3013579804531</v>
-      </c>
-      <c r="M2" t="n">
-        <v>856.3013579804531</v>
-      </c>
-      <c r="N2" t="n">
-        <v>856.3013579804531</v>
-      </c>
-      <c r="O2" t="n">
-        <v>932.7282368344228</v>
-      </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X2" t="n">
-        <v>1845.599623041337</v>
+        <v>1329.512330082224</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.262352996227</v>
+        <v>924.1750600371148</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1445421254694</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M3" t="n">
-        <v>957.9304488282003</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N3" t="n">
-        <v>1414.716355530931</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956633</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4393219715641</v>
+        <v>685.1459996266707</v>
       </c>
       <c r="C4" t="n">
-        <v>36.91199246082673</v>
+        <v>513.1734365055867</v>
       </c>
       <c r="D4" t="n">
-        <v>36.91199246082673</v>
+        <v>513.1734365055867</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082673</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082673</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
         <v>94.40332068498475</v>
@@ -4497,13 +4497,13 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>695.0806413228745</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
         <v>1718.599492800575</v>
@@ -4512,28 +4512,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1602.260275267236</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1322.075826767541</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V4" t="n">
-        <v>1040.36435937557</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W4" t="n">
-        <v>765.5119555480826</v>
+        <v>1154.052664491124</v>
       </c>
       <c r="X4" t="n">
-        <v>522.9480589938877</v>
+        <v>911.4887679369286</v>
       </c>
       <c r="Y4" t="n">
-        <v>296.6052906836297</v>
+        <v>685.1459996266707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1738.206464925269</v>
+        <v>1321.383964622947</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.305734938569</v>
+        <v>894.4832346362473</v>
       </c>
       <c r="D5" t="n">
-        <v>888.013114123569</v>
+        <v>894.4832346362473</v>
       </c>
       <c r="E5" t="n">
-        <v>462.0361742714265</v>
+        <v>468.5062947841049</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082673</v>
+        <v>43.38211297350506</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
@@ -4576,43 +4576,43 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N5" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O5" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M6" t="n">
-        <v>1686.413844810522</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N6" t="n">
-        <v>1686.413844810522</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O6" t="n">
-        <v>1686.413844810522</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P6" t="n">
-        <v>1686.413844810522</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4719,52 +4719,52 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1734.89676095343</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V7" t="n">
-        <v>1845.599623041337</v>
+        <v>1516.849542336539</v>
       </c>
       <c r="W7" t="n">
-        <v>1679.397180301858</v>
+        <v>1516.849542336539</v>
       </c>
       <c r="X7" t="n">
         <v>1436.833283747663</v>
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>909.6639657906942</v>
+        <v>1183.197173612391</v>
       </c>
       <c r="C8" t="n">
-        <v>482.7632358039943</v>
+        <v>1183.197173612391</v>
       </c>
       <c r="D8" t="n">
-        <v>482.7632358039943</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="E8" t="n">
-        <v>56.78629595185186</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="F8" t="n">
-        <v>56.78629595185186</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539723</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539723</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N8" t="n">
         <v>1271.257381456703</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P8" t="n">
         <v>1728.043288159434</v>
@@ -4834,22 +4834,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>1579.588523312045</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>1579.588523312045</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>1579.588523312045</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.232328914477</v>
+        <v>1183.197173612391</v>
       </c>
       <c r="X8" t="n">
-        <v>1329.512330082224</v>
+        <v>1183.197173612391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1329.512330082224</v>
+        <v>1183.197173612391</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L9" t="n">
-        <v>44.35863542273857</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M9" t="n">
-        <v>44.35863542273857</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N9" t="n">
-        <v>475.2419029331443</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O9" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="10">
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.32454672534</v>
+        <v>211.1566783181865</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O10" t="n">
-        <v>1742.234349487134</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P10" t="n">
-        <v>1742.234349487134</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4989,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.415174541641</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V10" t="n">
-        <v>1565.415174541641</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W10" t="n">
-        <v>1565.415174541641</v>
+        <v>870.229311894705</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.833283747663</v>
+        <v>627.6654153405101</v>
       </c>
       <c r="Y10" t="n">
-        <v>1210.490515437405</v>
+        <v>401.3226470302521</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1738.206464925269</v>
+        <v>916.0466945778373</v>
       </c>
       <c r="C11" t="n">
-        <v>1311.305734938569</v>
+        <v>916.0466945778373</v>
       </c>
       <c r="D11" t="n">
-        <v>888.013114123569</v>
+        <v>492.7540737628376</v>
       </c>
       <c r="E11" t="n">
-        <v>462.0361742714265</v>
+        <v>66.77713391069517</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082673</v>
+        <v>66.77713391069517</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>66.77713391069517</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>66.77713391069517</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
@@ -5053,10 +5053,10 @@
         <v>399.5154512777223</v>
       </c>
       <c r="N11" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O11" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P11" t="n">
         <v>1271.957808655251</v>
@@ -5068,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1738.206464925269</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U11" t="n">
-        <v>1738.206464925269</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.206464925269</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W11" t="n">
-        <v>1738.206464925269</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X11" t="n">
-        <v>1738.206464925269</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y11" t="n">
-        <v>1738.206464925269</v>
+        <v>1335.895058869367</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>772.8420314050604</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L12" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M12" t="n">
-        <v>772.8420314050604</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N12" t="n">
-        <v>772.8420314050604</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O12" t="n">
-        <v>850.0084995511719</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P12" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q12" t="n">
         <v>1763.580312956633</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1020.32454672534</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C13" t="n">
-        <v>848.3519836042556</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0352107310263</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8270048838798</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F13" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G13" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>320.9309218908219</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L13" t="n">
-        <v>675.6202431852428</v>
+        <v>449.0926419794055</v>
       </c>
       <c r="M13" t="n">
-        <v>695.0806413228745</v>
+        <v>840.2784369496563</v>
       </c>
       <c r="N13" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O13" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P13" t="n">
         <v>1718.599492800575</v>
@@ -5229,22 +5229,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="V13" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="W13" t="n">
-        <v>1679.397180301858</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="X13" t="n">
-        <v>1436.833283747663</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1210.490515437405</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.913844110269</v>
+        <v>903.0486561146067</v>
       </c>
       <c r="C14" t="n">
-        <v>888.013114123569</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="D14" t="n">
-        <v>888.013114123569</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="E14" t="n">
-        <v>462.0361742714265</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082673</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
         <v>399.5154512777223</v>
@@ -5290,10 +5290,10 @@
         <v>399.5154512777223</v>
       </c>
       <c r="N14" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O14" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P14" t="n">
         <v>1271.957808655251</v>
@@ -5305,25 +5305,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T14" t="n">
-        <v>1720.251114155379</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U14" t="n">
-        <v>1720.251114155379</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V14" t="n">
-        <v>1720.251114155379</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W14" t="n">
-        <v>1720.251114155379</v>
+        <v>903.0486561146067</v>
       </c>
       <c r="X14" t="n">
-        <v>1720.251114155379</v>
+        <v>903.0486561146067</v>
       </c>
       <c r="Y14" t="n">
-        <v>1314.913844110269</v>
+        <v>903.0486561146067</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L15" t="n">
-        <v>36.91199246082673</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M15" t="n">
-        <v>475.2419029331443</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N15" t="n">
-        <v>932.0278096358751</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O15" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1020.32454672534</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C16" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D16" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E16" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F16" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G16" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O16" t="n">
         <v>1555.000411119436</v>
@@ -5466,22 +5466,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041337</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W16" t="n">
-        <v>1679.397180301858</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X16" t="n">
-        <v>1436.833283747663</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y16" t="n">
-        <v>1210.490515437405</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>976.4213583974179</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C17" t="n">
-        <v>549.520628410718</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D17" t="n">
-        <v>549.520628410718</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E17" t="n">
-        <v>123.5436885585756</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F17" t="n">
-        <v>123.5436885585756</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>455.358312627159</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M17" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N17" t="n">
-        <v>1556.689382596035</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O17" t="n">
-        <v>2107.354917580473</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P17" t="n">
-        <v>2107.354917580473</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U17" t="n">
-        <v>1745.630772103421</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V17" t="n">
-        <v>1388.141357229671</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W17" t="n">
-        <v>1388.141357229671</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X17" t="n">
-        <v>976.4213583974179</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y17" t="n">
-        <v>976.4213583974179</v>
+        <v>2120.543958335517</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N18" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O18" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R18" t="n">
         <v>1853.185855629757</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1027.91077931376</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C19" t="n">
-        <v>855.9382161926764</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D19" t="n">
-        <v>692.6214433194471</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E19" t="n">
-        <v>526.4132374723006</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F19" t="n">
-        <v>354.551463246861</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G19" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
         <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U19" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V19" t="n">
-        <v>1254.253547624018</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W19" t="n">
-        <v>1254.253547624018</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X19" t="n">
-        <v>1254.253547624018</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y19" t="n">
-        <v>1027.91077931376</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>897.3758948880899</v>
+        <v>883.6383251666246</v>
       </c>
       <c r="C20" t="n">
-        <v>470.47516490139</v>
+        <v>883.6383251666246</v>
       </c>
       <c r="D20" t="n">
-        <v>470.47516490139</v>
+        <v>460.3457043516248</v>
       </c>
       <c r="E20" t="n">
-        <v>44.49822504924752</v>
+        <v>460.3457043516248</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>460.3457043516248</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>56.00664194107344</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>56.00664194107344</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>455.358312627159</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L20" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M20" t="n">
-        <v>1556.689382596035</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N20" t="n">
-        <v>2107.354917580473</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U20" t="n">
-        <v>2056.593929506603</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V20" t="n">
-        <v>1699.104514632853</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W20" t="n">
-        <v>1302.7131649332</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X20" t="n">
-        <v>1302.7131649332</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y20" t="n">
-        <v>897.3758948880899</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>669.8354755761782</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>669.8354755761782</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M21" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O21" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P21" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q21" t="n">
         <v>1771.166545545054</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5934,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>2177.872639149549</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U22" t="n">
-        <v>2177.872639149549</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V22" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1416.79990393047</v>
+        <v>562.9557228930317</v>
       </c>
       <c r="C23" t="n">
-        <v>989.8991739437699</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D23" t="n">
-        <v>989.8991739437699</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E23" t="n">
-        <v>563.9222340916275</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F23" t="n">
-        <v>483.7341587163277</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G23" t="n">
-        <v>79.39509630577631</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H23" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K23" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L23" t="n">
         <v>1145.829295018124</v>
@@ -6001,40 +6001,40 @@
         <v>1145.829295018124</v>
       </c>
       <c r="N23" t="n">
-        <v>1674.245717477938</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462376</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W23" t="n">
-        <v>1828.519902762722</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X23" t="n">
-        <v>1416.79990393047</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="Y23" t="n">
-        <v>1416.79990393047</v>
+        <v>982.8040871845618</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>595.1637600336854</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L24" t="n">
-        <v>751.8547856608814</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M24" t="n">
-        <v>751.8547856608814</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N24" t="n">
-        <v>751.8547856608814</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O24" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.9957668907073</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C25" t="n">
-        <v>374.0232037696233</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D25" t="n">
-        <v>210.706430896394</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E25" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F25" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6174,25 +6174,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>2041.81672018638</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U25" t="n">
-        <v>1761.632271686684</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.920804294713</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>1205.068400467226</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X25" t="n">
-        <v>962.5045039130309</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.161735602773</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>988.0056192934833</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C26" t="n">
-        <v>561.1048893067834</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D26" t="n">
-        <v>561.1048893067834</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E26" t="n">
-        <v>561.1048893067834</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F26" t="n">
-        <v>561.1048893067834</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G26" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M26" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N26" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462376</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X26" t="n">
-        <v>1813.191253630123</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y26" t="n">
-        <v>1407.853983585013</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>595.1637600336854</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M27" t="n">
-        <v>751.8547856608814</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N27" t="n">
-        <v>751.8547856608814</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O27" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524004</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="D28" t="n">
-        <v>792.3900115791711</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320246</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H28" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6411,25 +6411,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.571904688275</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U28" t="n">
-        <v>1981.571904688275</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.860437296304</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W28" t="n">
-        <v>1425.008033468817</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X28" t="n">
-        <v>1425.008033468817</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>781.6025372422928</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C29" t="n">
-        <v>781.6025372422928</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="D29" t="n">
-        <v>781.6025372422928</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="E29" t="n">
-        <v>781.6025372422928</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="F29" t="n">
-        <v>781.6025372422928</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G29" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H29" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
         <v>407.101683866143</v>
@@ -6469,46 +6469,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M29" t="n">
-        <v>1508.432753835019</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N29" t="n">
-        <v>2059.098288819457</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O29" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U29" t="n">
-        <v>1641.263477976561</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V29" t="n">
-        <v>1283.774063102811</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W29" t="n">
-        <v>887.3827134031578</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X29" t="n">
-        <v>781.6025372422928</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y29" t="n">
-        <v>781.6025372422928</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N30" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O30" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P30" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C31" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D31" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6645,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T31" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U31" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V31" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W31" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X31" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y31" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>781.6025372422928</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="C32" t="n">
-        <v>781.6025372422928</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="D32" t="n">
-        <v>781.6025372422928</v>
+        <v>860.4814422878121</v>
       </c>
       <c r="E32" t="n">
-        <v>781.6025372422928</v>
+        <v>860.4814422878121</v>
       </c>
       <c r="F32" t="n">
-        <v>781.6025372422928</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G32" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H32" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K32" t="n">
-        <v>957.767218850581</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L32" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M32" t="n">
-        <v>2059.098288819457</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N32" t="n">
-        <v>2107.354917580473</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580473</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2003.985681507009</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>1745.630772103421</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V32" t="n">
-        <v>1388.141357229671</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W32" t="n">
-        <v>991.7500075300175</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X32" t="n">
-        <v>781.6025372422928</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="Y32" t="n">
-        <v>781.6025372422928</v>
+        <v>1283.774063102812</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>51.94486801115936</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M33" t="n">
-        <v>1153.275937980035</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N33" t="n">
-        <v>1153.275937980035</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O33" t="n">
-        <v>1307.021068682275</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P33" t="n">
-        <v>1307.021068682275</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q33" t="n">
         <v>1771.166545545054</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>388.3325623957711</v>
+        <v>617.6368043798143</v>
       </c>
       <c r="C34" t="n">
-        <v>216.3599992746871</v>
+        <v>617.6368043798143</v>
       </c>
       <c r="D34" t="n">
-        <v>216.3599992746871</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E34" t="n">
-        <v>216.3599992746871</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924752</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924752</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6885,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.492863465543</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T34" t="n">
-        <v>1884.153515691443</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U34" t="n">
-        <v>1603.969067191748</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.257599799776</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W34" t="n">
-        <v>1047.405195972289</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X34" t="n">
-        <v>804.8412994180946</v>
+        <v>843.9795726900722</v>
       </c>
       <c r="Y34" t="n">
-        <v>578.4985311078367</v>
+        <v>617.6368043798143</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1230.141144670584</v>
+        <v>502.687717120776</v>
       </c>
       <c r="C35" t="n">
-        <v>803.240414683884</v>
+        <v>502.687717120776</v>
       </c>
       <c r="D35" t="n">
-        <v>803.240414683884</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F35" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G35" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H35" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L35" t="n">
-        <v>1508.432753835019</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M35" t="n">
-        <v>1508.432753835019</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N35" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O35" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T35" t="n">
-        <v>1899.618387380149</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U35" t="n">
-        <v>1641.263477976561</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V35" t="n">
-        <v>1283.774063102811</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W35" t="n">
-        <v>1230.141144670584</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X35" t="n">
-        <v>1230.141144670584</v>
+        <v>922.5360814123061</v>
       </c>
       <c r="Y35" t="n">
-        <v>1230.141144670584</v>
+        <v>922.5360814123061</v>
       </c>
     </row>
     <row r="36">
@@ -6998,34 +6998,34 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>874.3078922751884</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L36" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N36" t="n">
         <v>1307.021068682275</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>558.9552516858382</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C37" t="n">
-        <v>386.9826885647542</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D37" t="n">
-        <v>386.9826885647542</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E37" t="n">
-        <v>220.7744827176078</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F37" t="n">
-        <v>48.91270849216818</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924752</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924752</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7119,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T37" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U37" t="n">
-        <v>1774.591756481815</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V37" t="n">
-        <v>1492.880289089844</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W37" t="n">
-        <v>1218.027885262357</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X37" t="n">
-        <v>975.4639887081618</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y37" t="n">
-        <v>749.1212203979038</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1745.792697513689</v>
+        <v>863.9256988112818</v>
       </c>
       <c r="C38" t="n">
-        <v>1318.891967526989</v>
+        <v>437.0249688245819</v>
       </c>
       <c r="D38" t="n">
-        <v>895.5993467119897</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E38" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
@@ -7180,46 +7180,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L38" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M38" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N38" t="n">
-        <v>957.767218850581</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W38" t="n">
-        <v>2165.64106180522</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X38" t="n">
-        <v>2165.64106180522</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="Y38" t="n">
-        <v>2165.64106180522</v>
+        <v>1283.774063102812</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N39" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O39" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7362,22 +7362,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U40" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V40" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>895.5993467119897</v>
+        <v>929.588447107476</v>
       </c>
       <c r="C41" t="n">
-        <v>895.5993467119897</v>
+        <v>502.687717120776</v>
       </c>
       <c r="D41" t="n">
-        <v>895.5993467119897</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E41" t="n">
-        <v>469.6224068598473</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>957.767218850581</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L41" t="n">
-        <v>957.767218850581</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M41" t="n">
-        <v>957.767218850581</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N41" t="n">
-        <v>957.767218850581</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O41" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P41" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2109.047965289005</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U41" t="n">
-        <v>2109.047965289005</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V41" t="n">
-        <v>2109.047965289005</v>
+        <v>1731.317066852239</v>
       </c>
       <c r="W41" t="n">
-        <v>1712.656615589352</v>
+        <v>1334.925717152586</v>
       </c>
       <c r="X41" t="n">
-        <v>1300.936616757099</v>
+        <v>1334.925717152586</v>
       </c>
       <c r="Y41" t="n">
-        <v>895.5993467119897</v>
+        <v>929.588447107476</v>
       </c>
     </row>
     <row r="42">
@@ -7472,40 +7472,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N42" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O42" t="n">
-        <v>756.3555336978368</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P42" t="n">
         <v>1307.021068682275</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>488.1011306554951</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
-        <v>316.1285675344111</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>316.1285675344111</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>316.1285675344111</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7596,25 +7596,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>1983.922083951167</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>1703.737635451472</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1422.026168059501</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>1147.173764232014</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>904.6098676778188</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>678.2670993675608</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.668515703089</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C44" t="n">
-        <v>893.7677857163897</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D44" t="n">
-        <v>470.47516490139</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E44" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K44" t="n">
-        <v>957.7672188505811</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L44" t="n">
-        <v>1123.5801824935</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M44" t="n">
-        <v>1674.245717477938</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N44" t="n">
-        <v>2224.911252462376</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1862.189048931929</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1504.699634058178</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W44" t="n">
-        <v>1320.668515703089</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X44" t="n">
-        <v>1320.668515703089</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y44" t="n">
-        <v>1320.668515703089</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>756.3555336978367</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>756.3555336978367</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>756.3555336978367</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>756.3555336978367</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>756.3555336978367</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
         <v>1307.021068682275</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>388.332562395771</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C46" t="n">
-        <v>216.3599992746871</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D46" t="n">
-        <v>216.3599992746871</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E46" t="n">
-        <v>216.3599992746871</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924748</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924748</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924748</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7815,7 +7815,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
         <v>1451.88378161995</v>
@@ -7833,25 +7833,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.492863465543</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.153515691443</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U46" t="n">
-        <v>1603.969067191748</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.257599799776</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W46" t="n">
-        <v>1047.405195972289</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X46" t="n">
-        <v>804.8412994180946</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y46" t="n">
-        <v>578.4985311078367</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7993,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>114.5898268852864</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>455.2721730654569</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738758</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O3" t="n">
-        <v>375.5597255057598</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>99.71676862514317</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>42.23240770727544</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8224,22 +8224,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>113.8823246645311</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,10 +8300,10 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>183.5407536736399</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8388,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>136.4406355808522</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>362.3257551502136</v>
+        <v>457.4595408934818</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N9" t="n">
-        <v>456.5786519614262</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8628,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>129.0289299912519</v>
+        <v>64.31013128815742</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8701,13 +8701,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>457.1346235160601</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P11" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8771,22 +8771,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385595</v>
       </c>
       <c r="O12" t="n">
-        <v>101.1178171425368</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>484.1469440493127</v>
@@ -8850,16 +8850,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>42.23240770727544</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>255.3890173889887</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8938,13 +8938,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P14" t="n">
-        <v>457.4303624918454</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345437</v>
       </c>
       <c r="M15" t="n">
-        <v>465.8542658379013</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9099,7 +9099,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>192.3923090257622</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>453.3222319052608</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>267.010789576021</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9333,7 +9333,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
@@ -9403,25 +9403,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>84.50867025038097</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>379.611113881151</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9640,28 +9640,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>571.0335849150664</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>578.6270469489273</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L24" t="n">
-        <v>180.7888499740234</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,16 +9731,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>452.2898123070838</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
-        <v>181.3705437721218</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281025</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10117,25 +10117,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O29" t="n">
-        <v>204.8788014195786</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>267.010789576021</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>86.02369229001789</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O33" t="n">
-        <v>178.4700015426662</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10588,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P35" t="n">
-        <v>300.5986134498007</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489273</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L36" t="n">
-        <v>459.5991032870441</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10828,19 +10828,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O38" t="n">
-        <v>181.6704383876108</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>180.0446044646224</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104032</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L41" t="n">
         <v>38.31204243262292</v>
@@ -11074,16 +11074,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>300.4142109955935</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11153,10 +11153,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>460.2559062950367</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104033</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L44" t="n">
-        <v>205.799884496177</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11378,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>459.4832504061477</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204227</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>165.5716115997279</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>232.444810275241</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22612,7 +22612,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>101.4207812742432</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.38026930661482</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>309.3306541137075</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>393.8902524788943</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -23001,13 +23001,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>107.5634614771283</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>160.922161585666</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>380.620111330331</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>58.68894769940491</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -23083,10 +23083,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23181,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>162.3449984997972</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23229,22 +23229,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>112.842185702615</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>4.981412508593756</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>112.3970887109059</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -23478,10 +23478,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>107.5634614771283</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>175.1364185614017</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>94.62129144871484</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>391.0277964111628</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23706,16 +23706,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>107.5634614771283</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>44.64613243500543</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>322.040662912211</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.2254319385012</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>51.23370742489035</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>23.15456982105585</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>89.13721058333715</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>238.7963971061556</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>341.4867453709469</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24384,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0.6172179931343607</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>59.64236734312294</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>183.7447689121908</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>325.2164753450601</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>147.0421892400495</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.9882506157208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,7 +24691,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>281.602663049273</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>302.8804244446738</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>118.5577190788913</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>308.2349214534662</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>199.5568032590828</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.98949189919266</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>110.7363824384505</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,7 +25171,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>339.3308469547517</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>339.0810119873951</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25320,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>160.2240614002187</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>30.45821826926868</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>333.7499474520721</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.326677470263093</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,16 +25630,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25648,7 +25648,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>104.0116609441766</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>224.3512584661194</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326677470262922</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>210.2366290311188</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>262.0136204014378</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.326677470263093</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26043,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>436809.3783695774</v>
+        <v>436809.3783695773</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436809.3783695773</v>
+        <v>436809.3783695774</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436809.3783695772</v>
+        <v>436809.3783695774</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>492207.6773402161</v>
+        <v>492207.6773402162</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492207.6773402161</v>
+        <v>492207.6773402162</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>492207.6773402161</v>
+        <v>492207.6773402162</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>492207.6773402161</v>
+        <v>492207.6773402162</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492207.6773402161</v>
+        <v>492207.6773402162</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>492207.6773402162</v>
+        <v>492207.6773402161</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>492207.6773402162</v>
+        <v>492207.6773402163</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135314.4327365512</v>
+        <v>135314.4327365511</v>
       </c>
       <c r="C2" t="n">
         <v>135314.4327365512</v>
@@ -26328,16 +26328,16 @@
         <v>135314.4327365512</v>
       </c>
       <c r="G2" t="n">
+        <v>152470.9723568846</v>
+      </c>
+      <c r="H2" t="n">
         <v>152470.9723568845</v>
-      </c>
-      <c r="H2" t="n">
-        <v>152470.9723568844</v>
       </c>
       <c r="I2" t="n">
         <v>152470.9723568845</v>
       </c>
       <c r="J2" t="n">
-        <v>152470.9723568844</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="K2" t="n">
         <v>152470.9723568846</v>
@@ -26349,13 +26349,13 @@
         <v>152470.9723568845</v>
       </c>
       <c r="N2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="O2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="P2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25990.90698746637</v>
+        <v>25990.90698746642</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22820.43073295062</v>
+        <v>22820.43073295066</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>46301.12075802253</v>
       </c>
       <c r="F4" t="n">
-        <v>46301.12075802255</v>
+        <v>46301.12075802253</v>
       </c>
       <c r="G4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="H4" t="n">
         <v>52194.43267059494</v>
@@ -26441,25 +26441,25 @@
         <v>52194.43267059494</v>
       </c>
       <c r="J4" t="n">
-        <v>52194.43267059493</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="K4" t="n">
         <v>52194.43267059494</v>
       </c>
       <c r="L4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="M4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="N4" t="n">
         <v>52194.43267059494</v>
       </c>
       <c r="O4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="P4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127293.1229098201</v>
+        <v>-127997.4827313117</v>
       </c>
       <c r="C6" t="n">
-        <v>27332.59770830034</v>
+        <v>26628.2378868088</v>
       </c>
       <c r="D6" t="n">
-        <v>27332.59770830034</v>
+        <v>26628.23788680883</v>
       </c>
       <c r="E6" t="n">
-        <v>60960.19770830034</v>
+        <v>60255.8378868088</v>
       </c>
       <c r="F6" t="n">
-        <v>60960.1977083003</v>
+        <v>60255.83788680883</v>
       </c>
       <c r="G6" t="n">
-        <v>40466.98166139513</v>
+        <v>39857.93594890545</v>
       </c>
       <c r="H6" t="n">
-        <v>66457.88864886138</v>
+        <v>65848.84293637177</v>
       </c>
       <c r="I6" t="n">
-        <v>66457.88864886144</v>
+        <v>65848.8429363718</v>
       </c>
       <c r="J6" t="n">
-        <v>-54264.62829389548</v>
+        <v>-54873.67400638505</v>
       </c>
       <c r="K6" t="n">
-        <v>66457.88864886155</v>
+        <v>65848.84293637183</v>
       </c>
       <c r="L6" t="n">
-        <v>66457.8886488615</v>
+        <v>65848.84293637177</v>
       </c>
       <c r="M6" t="n">
-        <v>66457.88864886144</v>
+        <v>65848.8429363718</v>
       </c>
       <c r="N6" t="n">
-        <v>66457.88864886147</v>
+        <v>65848.84293637183</v>
       </c>
       <c r="O6" t="n">
-        <v>43637.45791591083</v>
+        <v>43028.41220342118</v>
       </c>
       <c r="P6" t="n">
-        <v>66457.88864886144</v>
+        <v>65848.84293637183</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>77.19886752926232</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O3" t="n">
-        <v>352.3878357835376</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781578962</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>76.49136530850697</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.7937153846614</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35108,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>111.8210728160673</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L8" t="n">
-        <v>324.0137127175906</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N9" t="n">
-        <v>435.2356237478845</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35348,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.409367226467</v>
+        <v>39.69056852337247</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35421,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P11" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35491,25 +35491,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="O12" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35570,16 +35570,16 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>19.65696781578962</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>381.3045564404402</v>
+        <v>234.6401164133883</v>
       </c>
       <c r="O13" t="n">
         <v>359.0183117977405</v>
@@ -35658,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P14" t="n">
-        <v>419.8550006816141</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="M15" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35819,7 +35819,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977405</v>
+        <v>169.8931215273378</v>
       </c>
       <c r="P16" t="n">
         <v>293.5345574968697</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>245.6677613624794</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36053,7 +36053,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
@@ -36123,25 +36123,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>357.2118800478177</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36360,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L24" t="n">
-        <v>158.2737632597939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M27" t="n">
-        <v>158.2737632597939</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,7 +36761,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>395.1371666366167</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
         <v>381.3045564404402</v>
@@ -36837,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O29" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>245.6677613624794</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>48.74406945557187</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O33" t="n">
-        <v>155.2981118204439</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37308,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P35" t="n">
-        <v>263.0232516395694</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L36" t="n">
-        <v>437.0840165728146</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O38" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P38" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>158.2737632597938</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>263.0232516395694</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>437.0840165728145</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>556.227813115594</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L44" t="n">
-        <v>167.4878420635541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>437.0840165728144</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
